--- a/Results/Excel/TC01_Register_Result.xlsx
+++ b/Results/Excel/TC01_Register_Result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\Project\Results\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B553F5B5-63A0-4C3B-91CA-DFDC25EC9C0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1349C5BA-A860-4F53-B45A-EE0C687A5390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -560,7 +560,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Mic Shell Dlg"/>
@@ -606,6 +606,13 @@
       <color rgb="FFFF0000"/>
       <name val="Mic Shell Dlg"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -667,7 +674,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -707,7 +714,12 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1014,8 +1026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.5"/>
@@ -1030,12 +1042,12 @@
     <col min="8" max="8" width="47.08984375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.36328125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21.08984375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="158.54296875" style="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="77.1796875" style="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.81640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.1796875" style="15" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.36328125" style="15" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="189.1796875" style="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="158.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="77.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="189.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="19" width="9" style="1" customWidth="1"/>
     <col min="20" max="20" width="15.453125" style="1" customWidth="1"/>
     <col min="21" max="21" width="9" style="1" customWidth="1"/>
@@ -1131,10 +1143,10 @@
       <c r="L2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" s="5" t="s">
+      <c r="M2" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="15" t="s">
         <v>26</v>
       </c>
       <c r="O2" s="5" t="s">
@@ -1181,14 +1193,14 @@
       <c r="L3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="M3" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>34</v>
+      <c r="M3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>26</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="P3" s="5" t="s">
         <v>35</v>
@@ -1231,14 +1243,14 @@
       <c r="L4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="M4" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>34</v>
+      <c r="M4" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="N4" s="15" t="s">
+        <v>26</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="P4" s="5" t="s">
         <v>35</v>
@@ -1281,14 +1293,14 @@
       <c r="L5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="M5" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>34</v>
+      <c r="M5" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="N5" s="15" t="s">
+        <v>26</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="P5" s="5" t="s">
         <v>35</v>
@@ -1331,14 +1343,14 @@
       <c r="L6" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="M6" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>34</v>
+      <c r="M6" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="N6" s="15" t="s">
+        <v>26</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="P6" s="5" t="s">
         <v>35</v>
@@ -1381,10 +1393,10 @@
       <c r="L7" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="M7" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="N7" s="5" t="s">
+      <c r="M7" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="N7" s="8" t="s">
         <v>34</v>
       </c>
       <c r="O7" s="5" t="s">
@@ -1431,10 +1443,10 @@
       <c r="L8" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="M8" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="N8" s="5" t="s">
+      <c r="M8" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="N8" s="8" t="s">
         <v>34</v>
       </c>
       <c r="O8" s="5" t="s">
@@ -1479,10 +1491,10 @@
       <c r="L9" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="M9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="N9" s="5" t="s">
+      <c r="M9" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N9" s="15" t="s">
         <v>26</v>
       </c>
       <c r="O9" s="5" t="s">
@@ -1529,14 +1541,14 @@
       <c r="L10" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="M10" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="N10" s="5" t="s">
-        <v>34</v>
+      <c r="M10" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="N10" s="15" t="s">
+        <v>26</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="P10" s="5" t="s">
         <v>57</v>
@@ -1579,14 +1591,14 @@
       <c r="L11" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="M11" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="N11" s="5" t="s">
-        <v>34</v>
+      <c r="M11" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="N11" s="15" t="s">
+        <v>26</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="P11" s="5" t="s">
         <v>57</v>
@@ -1629,14 +1641,14 @@
       <c r="L12" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="M12" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="N12" s="5" t="s">
-        <v>34</v>
+      <c r="M12" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="N12" s="15" t="s">
+        <v>26</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="P12" s="5" t="s">
         <v>57</v>
@@ -1679,10 +1691,10 @@
       <c r="L13" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="M13" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="N13" s="5" t="s">
+      <c r="M13" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="N13" s="8" t="s">
         <v>34</v>
       </c>
       <c r="O13" s="5" t="s">
@@ -1729,10 +1741,10 @@
       <c r="L14" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="M14" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="N14" s="5" t="s">
+      <c r="M14" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="N14" s="8" t="s">
         <v>34</v>
       </c>
       <c r="O14" s="5" t="s">
@@ -1777,10 +1789,10 @@
       <c r="L15" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="M15" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="N15" s="5" t="s">
+      <c r="M15" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N15" s="15" t="s">
         <v>26</v>
       </c>
       <c r="O15" s="5" t="s">
@@ -1827,10 +1839,10 @@
       <c r="L16" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="M16" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="N16" s="5" t="s">
+      <c r="M16" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="N16" s="8" t="s">
         <v>34</v>
       </c>
       <c r="O16" s="5" t="s">
@@ -1877,10 +1889,10 @@
       <c r="L17" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="M17" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="N17" s="5" t="s">
+      <c r="M17" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="N17" s="8" t="s">
         <v>34</v>
       </c>
       <c r="O17" s="5" t="s">
@@ -1927,10 +1939,10 @@
       <c r="L18" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="M18" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="N18" s="5" t="s">
+      <c r="M18" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="N18" s="8" t="s">
         <v>34</v>
       </c>
       <c r="O18" s="5" t="s">
@@ -1977,10 +1989,10 @@
       <c r="L19" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="M19" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="N19" s="5" t="s">
+      <c r="M19" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="N19" s="8" t="s">
         <v>34</v>
       </c>
       <c r="O19" s="5" t="s">
@@ -2027,10 +2039,10 @@
       <c r="L20" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="M20" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="N20" s="5" t="s">
+      <c r="M20" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="N20" s="8" t="s">
         <v>34</v>
       </c>
       <c r="O20" s="5" t="s">
@@ -2075,10 +2087,10 @@
       <c r="L21" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="M21" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="N21" s="5" t="s">
+      <c r="M21" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N21" s="15" t="s">
         <v>26</v>
       </c>
       <c r="O21" s="5" t="s">
@@ -2125,14 +2137,14 @@
       <c r="L22" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="M22" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="N22" s="5" t="s">
-        <v>34</v>
+      <c r="M22" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="N22" s="15" t="s">
+        <v>26</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="P22" s="5" t="s">
         <v>92</v>
@@ -2175,14 +2187,14 @@
       <c r="L23" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="M23" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="N23" s="5" t="s">
-        <v>34</v>
+      <c r="M23" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="N23" s="15" t="s">
+        <v>26</v>
       </c>
       <c r="O23" s="5" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="P23" s="5" t="s">
         <v>92</v>
@@ -2225,14 +2237,14 @@
       <c r="L24" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="M24" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="N24" s="5" t="s">
-        <v>34</v>
+      <c r="M24" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="N24" s="15" t="s">
+        <v>26</v>
       </c>
       <c r="O24" s="5" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="P24" s="5" t="s">
         <v>92</v>
@@ -2275,14 +2287,14 @@
       <c r="L25" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="M25" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="N25" s="5" t="s">
-        <v>34</v>
+      <c r="M25" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="N25" s="15" t="s">
+        <v>26</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="P25" s="5" t="s">
         <v>101</v>
@@ -2325,14 +2337,14 @@
       <c r="L26" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="M26" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="N26" s="5" t="s">
-        <v>34</v>
+      <c r="M26" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="N26" s="15" t="s">
+        <v>26</v>
       </c>
       <c r="O26" s="5" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="P26" s="5" t="s">
         <v>101</v>
@@ -2375,10 +2387,10 @@
       <c r="L27" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="M27" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="N27" s="5" t="s">
+      <c r="M27" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N27" s="15" t="s">
         <v>26</v>
       </c>
       <c r="O27" s="5" t="s">
@@ -2425,10 +2437,10 @@
       <c r="L28" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="M28" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="N28" s="5" t="s">
+      <c r="M28" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N28" s="15" t="s">
         <v>26</v>
       </c>
       <c r="O28" s="5" t="s">
@@ -2473,10 +2485,10 @@
       <c r="L29" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="M29" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="N29" s="5" t="s">
+      <c r="M29" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N29" s="15" t="s">
         <v>26</v>
       </c>
       <c r="O29" s="5" t="s">
@@ -2521,10 +2533,10 @@
       <c r="L30" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="M30" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="N30" s="5" t="s">
+      <c r="M30" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N30" s="15" t="s">
         <v>26</v>
       </c>
       <c r="O30" s="5" t="s">
@@ -2571,14 +2583,14 @@
       <c r="L31" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="M31" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="N31" s="5" t="s">
-        <v>34</v>
+      <c r="M31" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="N31" s="15" t="s">
+        <v>26</v>
       </c>
       <c r="O31" s="5" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="P31" s="5" t="s">
         <v>116</v>
@@ -2621,14 +2633,14 @@
       <c r="L32" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="M32" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="N32" s="5" t="s">
-        <v>34</v>
+      <c r="M32" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="N32" s="15" t="s">
+        <v>26</v>
       </c>
       <c r="O32" s="5" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="P32" s="5" t="s">
         <v>116</v>
@@ -2671,14 +2683,14 @@
       <c r="L33" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="M33" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="N33" s="5" t="s">
-        <v>34</v>
+      <c r="M33" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="N33" s="15" t="s">
+        <v>26</v>
       </c>
       <c r="O33" s="5" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="P33" s="5" t="s">
         <v>116</v>
@@ -2721,14 +2733,14 @@
       <c r="L34" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="M34" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="N34" s="5" t="s">
-        <v>34</v>
+      <c r="M34" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="N34" s="15" t="s">
+        <v>26</v>
       </c>
       <c r="O34" s="5" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="P34" s="5" t="s">
         <v>116</v>
@@ -2771,14 +2783,14 @@
       <c r="L35" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="M35" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="N35" s="5" t="s">
-        <v>34</v>
+      <c r="M35" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="N35" s="15" t="s">
+        <v>26</v>
       </c>
       <c r="O35" s="5" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="P35" s="5" t="s">
         <v>116</v>
@@ -2821,10 +2833,10 @@
       <c r="L36" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="M36" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="N36" s="5" t="s">
+      <c r="M36" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="N36" s="8" t="s">
         <v>34</v>
       </c>
       <c r="O36" s="5" t="s">
@@ -2871,10 +2883,10 @@
       <c r="L37" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="M37" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="N37" s="5" t="s">
+      <c r="M37" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="N37" s="8" t="s">
         <v>34</v>
       </c>
       <c r="O37" s="5" t="s">
@@ -2919,10 +2931,10 @@
       <c r="L38" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="M38" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="N38" s="5" t="s">
+      <c r="M38" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N38" s="15" t="s">
         <v>26</v>
       </c>
       <c r="O38" s="5" t="s">
@@ -2969,14 +2981,14 @@
       <c r="L39" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="M39" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="N39" s="5" t="s">
-        <v>34</v>
+      <c r="M39" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="N39" s="15" t="s">
+        <v>26</v>
       </c>
       <c r="O39" s="5" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="P39" s="5" t="s">
         <v>137</v>
@@ -3021,10 +3033,10 @@
       <c r="L40" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="M40" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="N40" s="5" t="s">
+      <c r="M40" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="N40" s="8" t="s">
         <v>34</v>
       </c>
       <c r="O40" s="5" t="s">
@@ -3073,10 +3085,10 @@
       <c r="L41" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="M41" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="N41" s="5" t="s">
+      <c r="M41" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="N41" s="8" t="s">
         <v>34</v>
       </c>
       <c r="O41" s="5" t="s">
@@ -3125,10 +3137,10 @@
       <c r="L42" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="M42" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="N42" s="5" t="s">
+      <c r="M42" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="N42" s="8" t="s">
         <v>34</v>
       </c>
       <c r="O42" s="5" t="s">
@@ -3177,10 +3189,10 @@
       <c r="L43" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="M43" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="N43" s="4" t="s">
+      <c r="M43" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="N43" s="14" t="s">
         <v>34</v>
       </c>
       <c r="O43" s="4" t="s">
@@ -3229,10 +3241,10 @@
       <c r="L44" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="M44" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="N44" s="4" t="s">
+      <c r="M44" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="N44" s="14" t="s">
         <v>34</v>
       </c>
       <c r="O44" s="4" t="s">
@@ -3281,14 +3293,14 @@
       <c r="L45" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="M45" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="N45" s="4" t="s">
-        <v>34</v>
+      <c r="M45" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="N45" s="16" t="s">
+        <v>26</v>
       </c>
       <c r="O45" s="4" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="P45" s="4" t="s">
         <v>152</v>
@@ -3333,14 +3345,14 @@
       <c r="L46" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="M46" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="N46" s="4" t="s">
-        <v>34</v>
+      <c r="M46" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="N46" s="16" t="s">
+        <v>26</v>
       </c>
       <c r="O46" s="4" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="P46" s="4" t="s">
         <v>152</v>
@@ -3385,10 +3397,10 @@
       <c r="L47" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="M47" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="N47" s="4" t="s">
+      <c r="M47" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="N47" s="14" t="s">
         <v>34</v>
       </c>
       <c r="O47" s="4" t="s">
@@ -3437,10 +3449,10 @@
       <c r="L48" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="M48" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="N48" s="5" t="s">
+      <c r="M48" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="N48" s="8" t="s">
         <v>34</v>
       </c>
       <c r="O48" s="5" t="s">
@@ -3489,10 +3501,10 @@
       <c r="L49" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="M49" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="N49" s="5" t="s">
+      <c r="M49" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N49" s="15" t="s">
         <v>26</v>
       </c>
       <c r="O49" s="5" t="s">
@@ -3541,10 +3553,10 @@
       <c r="L50" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="M50" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="N50" s="5" t="s">
+      <c r="M50" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N50" s="15" t="s">
         <v>26</v>
       </c>
       <c r="O50" s="5" t="s">
@@ -3593,10 +3605,10 @@
       <c r="L51" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="M51" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="N51" s="5" t="s">
+      <c r="M51" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N51" s="15" t="s">
         <v>26</v>
       </c>
       <c r="O51" s="5" t="s">
@@ -3650,6 +3662,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Results/Excel/TC01_Register_Result.xlsx
+++ b/Results/Excel/TC01_Register_Result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\Project\Results\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1349C5BA-A860-4F53-B45A-EE0C687A5390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C5C82D3-C18D-4FD5-8801-CFEA73CADE0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="171">
   <si>
     <t>TDID</t>
   </si>
@@ -130,9 +130,6 @@
     <t>Fail</t>
   </si>
   <si>
-    <t>ควรแสดงข้อความแจ้งเตือนว่า "ชื่อต้องเป็นตัวอักษรภาษาไทยหรือภาษาอังกฤษ และห้ามมีช่องว่าง ตัวเลขหรือตัวอักษรพิเศษ"</t>
-  </si>
-  <si>
     <t>TD3</t>
   </si>
   <si>
@@ -196,9 +193,6 @@
     <t>นามสกุลต้องเป็นภาษาไทยหรือภาษาอังกฤษเท่านั้น</t>
   </si>
   <si>
-    <t>ควรแสดงข้อความแจ้งเตือนว่า "นามสกุลต้องเป็นตัวอักษรภาษาไทยหรือภาษาอังกฤษ และห้ามมีตัวเลขหรือตัวอักษรพิเศษ"</t>
-  </si>
-  <si>
     <t>TD10</t>
   </si>
   <si>
@@ -301,9 +295,6 @@
     <t>เบอร์โทรต้องมีจำนวนตัวเลข 10 ตัวเลขเท่านั้น</t>
   </si>
   <si>
-    <t>ควรแสดงข้อความแจ้งเตือนว่า "เบอร์โทรห้ามมีช่องว่าง ตัวอักษรหรือตัวอักษรพิเศษ"</t>
-  </si>
-  <si>
     <t>TD22</t>
   </si>
   <si>
@@ -328,9 +319,6 @@
     <t>ต้องขึ้นต้นด้วยเลข 0 เท่านั้น และไม่มีช่องว่างหรือตัวอักษรใดๆ แทรกระหว่างตัวเลข</t>
   </si>
   <si>
-    <t>ควรแสดงข้อความแจ้งเตือนว่า "เบอร์โทรต้องเป็นตัวเลขอารบิก และขึ้นต้นด้วยเลข 06 08 09 เท่านั้น"</t>
-  </si>
-  <si>
     <t>TD25</t>
   </si>
   <si>
@@ -373,9 +361,6 @@
     <t>อีเมลต้องเป็นรูปแบบที่ถูกต้องของอีเมล</t>
   </si>
   <si>
-    <t>ควรแสดงข้อความแจ้งเตือนว่า "อีเมลต้องเป็นรูปแบบที่ถูกต้องของอีเมล ประกอบด้วยตัวอักษรภาษาอังกฤษ ตัวเลขอารบิกหรือตัวอักษรพิเศษ ขีดกลาง - ขีดล่าง _ แอท @ จุด . และห้ามมีช่องว่าง"</t>
-  </si>
-  <si>
     <t>TD31</t>
   </si>
   <si>
@@ -479,9 +464,6 @@
   </si>
   <si>
     <t>เลขบัตรประชาชนต้องมีจำนวน 13 หลัก</t>
-  </si>
-  <si>
-    <t>ควรแสดงข้อความแจ้งเตือนว่า "เลขบัตรประชาชนต้องมีจำนวน 13 หลัก"</t>
   </si>
   <si>
     <t>TD45</t>
@@ -674,7 +656,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -715,9 +697,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1027,7 +1006,7 @@
   <dimension ref="A1:T53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.5"/>
@@ -1203,18 +1182,18 @@
         <v>27</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="15.5" customHeight="1">
       <c r="A4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>37</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>18</v>
@@ -1253,18 +1232,18 @@
         <v>27</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="15.5" customHeight="1">
       <c r="A5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>38</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>39</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>18</v>
@@ -1303,18 +1282,18 @@
         <v>27</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="15.5" customHeight="1">
       <c r="A6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>40</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>41</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>18</v>
@@ -1353,18 +1332,18 @@
         <v>27</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="15.5" customHeight="1">
       <c r="A7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>42</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>43</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>18</v>
@@ -1388,33 +1367,33 @@
         <v>24</v>
       </c>
       <c r="K7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="L7" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="L7" s="5" t="s">
-        <v>45</v>
-      </c>
       <c r="M7" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="N7" s="8" t="s">
-        <v>34</v>
+      <c r="N7" s="15" t="s">
+        <v>26</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="15.5" customHeight="1">
       <c r="A8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>18</v>
@@ -1438,10 +1417,10 @@
         <v>24</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M8" s="8" t="s">
         <v>34</v>
@@ -1453,18 +1432,18 @@
         <v>14</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="15.5" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="5" t="s">
@@ -1486,10 +1465,10 @@
         <v>24</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M9" s="15" t="s">
         <v>26</v>
@@ -1506,16 +1485,16 @@
     </row>
     <row r="10" spans="1:20" ht="15.5" customHeight="1">
       <c r="A10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>53</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>54</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>19</v>
@@ -1536,10 +1515,10 @@
         <v>24</v>
       </c>
       <c r="K10" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="L10" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="8" t="s">
         <v>34</v>
@@ -1551,21 +1530,21 @@
         <v>27</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="15.5" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>19</v>
@@ -1586,10 +1565,10 @@
         <v>24</v>
       </c>
       <c r="K11" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="L11" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>56</v>
       </c>
       <c r="M11" s="8" t="s">
         <v>34</v>
@@ -1601,21 +1580,21 @@
         <v>27</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="15.5" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>19</v>
@@ -1636,10 +1615,10 @@
         <v>24</v>
       </c>
       <c r="K12" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="L12" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>56</v>
       </c>
       <c r="M12" s="8" t="s">
         <v>34</v>
@@ -1651,21 +1630,21 @@
         <v>27</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="15.5" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>19</v>
@@ -1686,36 +1665,36 @@
         <v>24</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M13" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="N13" s="8" t="s">
-        <v>34</v>
+      <c r="N13" s="15" t="s">
+        <v>26</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="15.5" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>19</v>
@@ -1736,10 +1715,10 @@
         <v>24</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M14" s="8" t="s">
         <v>34</v>
@@ -1751,18 +1730,18 @@
         <v>14</v>
       </c>
       <c r="P14" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="15.5" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>18</v>
@@ -1784,10 +1763,10 @@
         <v>24</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M15" s="15" t="s">
         <v>26</v>
@@ -1804,19 +1783,19 @@
     </row>
     <row r="16" spans="1:20" ht="15.5" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>20</v>
@@ -1834,10 +1813,10 @@
         <v>24</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M16" s="8" t="s">
         <v>34</v>
@@ -1849,24 +1828,24 @@
         <v>14</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="15.5" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>20</v>
@@ -1884,10 +1863,10 @@
         <v>24</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M17" s="8" t="s">
         <v>34</v>
@@ -1899,24 +1878,24 @@
         <v>14</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="15.5" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>20</v>
@@ -1934,10 +1913,10 @@
         <v>24</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M18" s="8" t="s">
         <v>34</v>
@@ -1949,24 +1928,24 @@
         <v>14</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="15.5" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>20</v>
@@ -1984,10 +1963,10 @@
         <v>24</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M19" s="8" t="s">
         <v>34</v>
@@ -1999,24 +1978,24 @@
         <v>14</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="15.5" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>20</v>
@@ -2034,10 +2013,10 @@
         <v>24</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="M20" s="8" t="s">
         <v>34</v>
@@ -2049,18 +2028,18 @@
         <v>14</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="15.5" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>18</v>
@@ -2082,10 +2061,10 @@
         <v>24</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M21" s="15" t="s">
         <v>26</v>
@@ -2102,13 +2081,13 @@
     </row>
     <row r="22" spans="1:16" ht="15.5" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>18</v>
@@ -2117,7 +2096,7 @@
         <v>19</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>21</v>
@@ -2132,10 +2111,10 @@
         <v>24</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M22" s="8" t="s">
         <v>34</v>
@@ -2147,18 +2126,18 @@
         <v>27</v>
       </c>
       <c r="P22" s="5" t="s">
-        <v>92</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="15.5" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>18</v>
@@ -2167,7 +2146,7 @@
         <v>19</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>31</v>
@@ -2182,10 +2161,10 @@
         <v>24</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M23" s="8" t="s">
         <v>34</v>
@@ -2197,18 +2176,18 @@
         <v>27</v>
       </c>
       <c r="P23" s="5" t="s">
-        <v>92</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="15.5" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>18</v>
@@ -2217,7 +2196,7 @@
         <v>19</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>21</v>
@@ -2232,10 +2211,10 @@
         <v>24</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M24" s="8" t="s">
         <v>34</v>
@@ -2247,18 +2226,18 @@
         <v>27</v>
       </c>
       <c r="P24" s="5" t="s">
-        <v>92</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="15.5" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>18</v>
@@ -2267,7 +2246,7 @@
         <v>19</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>31</v>
@@ -2282,10 +2261,10 @@
         <v>24</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="M25" s="8" t="s">
         <v>34</v>
@@ -2297,18 +2276,18 @@
         <v>27</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>101</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="15.5" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>18</v>
@@ -2317,7 +2296,7 @@
         <v>19</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>21</v>
@@ -2332,10 +2311,10 @@
         <v>24</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="M26" s="8" t="s">
         <v>34</v>
@@ -2347,18 +2326,18 @@
         <v>27</v>
       </c>
       <c r="P26" s="5" t="s">
-        <v>101</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="15.5" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>18</v>
@@ -2367,7 +2346,7 @@
         <v>19</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>31</v>
@@ -2382,10 +2361,10 @@
         <v>24</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M27" s="15" t="s">
         <v>26</v>
@@ -2402,13 +2381,13 @@
     </row>
     <row r="28" spans="1:16" ht="15.5" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>18</v>
@@ -2417,7 +2396,7 @@
         <v>19</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>21</v>
@@ -2432,10 +2411,10 @@
         <v>24</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M28" s="15" t="s">
         <v>26</v>
@@ -2452,13 +2431,13 @@
     </row>
     <row r="29" spans="1:16" ht="15.5" customHeight="1">
       <c r="A29" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>18</v>
@@ -2480,10 +2459,10 @@
         <v>24</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="L29" s="5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="M29" s="15" t="s">
         <v>26</v>
@@ -2500,13 +2479,13 @@
     </row>
     <row r="30" spans="1:16" ht="15.5" customHeight="1">
       <c r="A30" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>18</v>
@@ -2528,10 +2507,10 @@
         <v>24</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="L30" s="5" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="M30" s="15" t="s">
         <v>26</v>
@@ -2548,13 +2527,13 @@
     </row>
     <row r="31" spans="1:16" ht="15.5" customHeight="1">
       <c r="A31" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>18</v>
@@ -2569,7 +2548,7 @@
         <v>21</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="I31" s="4" t="s">
         <v>23</v>
@@ -2578,10 +2557,10 @@
         <v>24</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="L31" s="5" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="M31" s="8" t="s">
         <v>34</v>
@@ -2593,18 +2572,18 @@
         <v>27</v>
       </c>
       <c r="P31" s="5" t="s">
-        <v>116</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="15.5" customHeight="1">
       <c r="A32" s="3" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>18</v>
@@ -2619,7 +2598,7 @@
         <v>31</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="I32" s="4" t="s">
         <v>23</v>
@@ -2628,10 +2607,10 @@
         <v>24</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="L32" s="5" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="M32" s="8" t="s">
         <v>34</v>
@@ -2643,18 +2622,18 @@
         <v>27</v>
       </c>
       <c r="P32" s="5" t="s">
-        <v>116</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:18" ht="15.5" customHeight="1">
       <c r="A33" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>18</v>
@@ -2669,7 +2648,7 @@
         <v>21</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="I33" s="4" t="s">
         <v>23</v>
@@ -2678,10 +2657,10 @@
         <v>24</v>
       </c>
       <c r="K33" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="L33" s="5" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="M33" s="8" t="s">
         <v>34</v>
@@ -2693,18 +2672,18 @@
         <v>27</v>
       </c>
       <c r="P33" s="5" t="s">
-        <v>116</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:18" ht="15.5" customHeight="1">
       <c r="A34" s="3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>18</v>
@@ -2719,7 +2698,7 @@
         <v>31</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="I34" s="4" t="s">
         <v>23</v>
@@ -2728,10 +2707,10 @@
         <v>24</v>
       </c>
       <c r="K34" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="L34" s="5" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="M34" s="8" t="s">
         <v>34</v>
@@ -2743,18 +2722,18 @@
         <v>27</v>
       </c>
       <c r="P34" s="5" t="s">
-        <v>116</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:18" ht="15.5" customHeight="1">
       <c r="A35" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>18</v>
@@ -2769,7 +2748,7 @@
         <v>21</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="I35" s="4" t="s">
         <v>23</v>
@@ -2778,10 +2757,10 @@
         <v>24</v>
       </c>
       <c r="K35" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="L35" s="5" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="M35" s="8" t="s">
         <v>34</v>
@@ -2793,18 +2772,18 @@
         <v>27</v>
       </c>
       <c r="P35" s="5" t="s">
-        <v>116</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:18" ht="15.5" customHeight="1">
       <c r="A36" s="3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>18</v>
@@ -2819,7 +2798,7 @@
         <v>31</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="I36" s="4" t="s">
         <v>23</v>
@@ -2828,10 +2807,10 @@
         <v>24</v>
       </c>
       <c r="K36" s="5" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="L36" s="5" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="M36" s="8" t="s">
         <v>34</v>
@@ -2843,18 +2822,18 @@
         <v>14</v>
       </c>
       <c r="P36" s="5" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="37" spans="1:18" ht="15.5" customHeight="1">
       <c r="A37" s="3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>18</v>
@@ -2869,7 +2848,7 @@
         <v>21</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I37" s="4" t="s">
         <v>23</v>
@@ -2878,10 +2857,10 @@
         <v>24</v>
       </c>
       <c r="K37" s="5" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="L37" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M37" s="8" t="s">
         <v>34</v>
@@ -2893,18 +2872,18 @@
         <v>14</v>
       </c>
       <c r="P37" s="5" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="38" spans="1:18" ht="15.5" customHeight="1">
       <c r="A38" s="3" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>18</v>
@@ -2926,10 +2905,10 @@
         <v>24</v>
       </c>
       <c r="K38" s="5" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="L38" s="5" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="M38" s="15" t="s">
         <v>26</v>
@@ -2946,13 +2925,13 @@
     </row>
     <row r="39" spans="1:18" ht="15.5" customHeight="1">
       <c r="A39" s="3" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>18</v>
@@ -2970,16 +2949,16 @@
         <v>22</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="J39" s="4" t="s">
         <v>24</v>
       </c>
       <c r="K39" s="5" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="L39" s="5" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="M39" s="8" t="s">
         <v>34</v>
@@ -2991,20 +2970,20 @@
         <v>27</v>
       </c>
       <c r="P39" s="5" t="s">
-        <v>137</v>
+        <v>28</v>
       </c>
       <c r="Q39" s="12"/>
       <c r="R39" s="12"/>
     </row>
     <row r="40" spans="1:18" ht="15.5" customHeight="1">
       <c r="A40" s="3" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>18</v>
@@ -3022,16 +3001,16 @@
         <v>22</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="J40" s="4" t="s">
         <v>24</v>
       </c>
       <c r="K40" s="5" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="L40" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M40" s="8" t="s">
         <v>34</v>
@@ -3043,20 +3022,20 @@
         <v>14</v>
       </c>
       <c r="P40" s="5" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="Q40" s="12"/>
       <c r="R40" s="12"/>
     </row>
     <row r="41" spans="1:18" ht="15.5" customHeight="1">
       <c r="A41" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>18</v>
@@ -3074,41 +3053,41 @@
         <v>22</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="J41" s="4" t="s">
         <v>24</v>
       </c>
       <c r="K41" s="5" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="L41" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="M41" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="N41" s="8" t="s">
-        <v>34</v>
+      <c r="N41" s="15" t="s">
+        <v>26</v>
       </c>
       <c r="O41" s="5" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="P41" s="5" t="s">
-        <v>137</v>
+        <v>28</v>
       </c>
       <c r="Q41" s="12"/>
       <c r="R41" s="12"/>
     </row>
     <row r="42" spans="1:18" ht="15.5" customHeight="1">
       <c r="A42" s="3" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>18</v>
@@ -3126,41 +3105,41 @@
         <v>22</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="J42" s="4" t="s">
         <v>24</v>
       </c>
       <c r="K42" s="5" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="L42" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="M42" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="N42" s="8" t="s">
-        <v>34</v>
+      <c r="N42" s="15" t="s">
+        <v>26</v>
       </c>
       <c r="O42" s="5" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="P42" s="5" t="s">
-        <v>137</v>
+        <v>28</v>
       </c>
       <c r="Q42" s="12"/>
       <c r="R42" s="12"/>
     </row>
     <row r="43" spans="1:18" ht="15.5" customHeight="1">
       <c r="A43" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>18</v>
@@ -3178,41 +3157,41 @@
         <v>22</v>
       </c>
       <c r="I43" s="14" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="J43" s="4" t="s">
         <v>24</v>
       </c>
       <c r="K43" s="5" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="M43" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="N43" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="O43" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="P43" s="4" t="s">
-        <v>137</v>
+      <c r="N43" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="O43" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="P43" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="Q43" s="12"/>
       <c r="R43" s="12"/>
     </row>
     <row r="44" spans="1:18" ht="15.5" customHeight="1">
       <c r="A44" s="3" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>18</v>
@@ -3230,16 +3209,16 @@
         <v>22</v>
       </c>
       <c r="I44" s="14" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="J44" s="4" t="s">
         <v>24</v>
       </c>
       <c r="K44" s="5" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M44" s="14" t="s">
         <v>34</v>
@@ -3251,20 +3230,20 @@
         <v>14</v>
       </c>
       <c r="P44" s="4" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="Q44" s="12"/>
       <c r="R44" s="12"/>
     </row>
     <row r="45" spans="1:18" ht="15.5" customHeight="1">
       <c r="A45" s="3" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>18</v>
@@ -3282,41 +3261,41 @@
         <v>22</v>
       </c>
       <c r="I45" s="14" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="J45" s="4" t="s">
         <v>24</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="M45" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="N45" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="O45" s="4" t="s">
+      <c r="N45" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="O45" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="P45" s="4" t="s">
-        <v>152</v>
+      <c r="P45" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="Q45" s="12"/>
       <c r="R45" s="12"/>
     </row>
     <row r="46" spans="1:18" ht="15.5" customHeight="1">
       <c r="A46" s="3" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>18</v>
@@ -3334,41 +3313,41 @@
         <v>22</v>
       </c>
       <c r="I46" s="14" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="J46" s="4" t="s">
         <v>24</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="M46" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="N46" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="O46" s="4" t="s">
+      <c r="N46" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="O46" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="P46" s="4" t="s">
-        <v>152</v>
+      <c r="P46" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="Q46" s="12"/>
       <c r="R46" s="12"/>
     </row>
     <row r="47" spans="1:18" ht="15.5" customHeight="1">
       <c r="A47" s="3" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>18</v>
@@ -3389,13 +3368,13 @@
         <v>23</v>
       </c>
       <c r="J47" s="14" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M47" s="14" t="s">
         <v>34</v>
@@ -3407,20 +3386,20 @@
         <v>14</v>
       </c>
       <c r="P47" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="Q47" s="12"/>
       <c r="R47" s="12"/>
     </row>
     <row r="48" spans="1:18" ht="15.5" customHeight="1">
       <c r="A48" s="3" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>18</v>
@@ -3435,7 +3414,7 @@
         <v>31</v>
       </c>
       <c r="H48" s="13" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="I48" s="4" t="s">
         <v>23</v>
@@ -3444,10 +3423,10 @@
         <v>24</v>
       </c>
       <c r="K48" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L48" s="5" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="M48" s="8" t="s">
         <v>34</v>
@@ -3459,26 +3438,26 @@
         <v>14</v>
       </c>
       <c r="P48" s="5" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="Q48" s="12"/>
       <c r="R48" s="12"/>
     </row>
     <row r="49" spans="1:18" ht="15.5" customHeight="1">
       <c r="A49" s="3" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="F49" s="5" t="s">
         <v>20</v>
@@ -3493,13 +3472,13 @@
         <v>23</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="K49" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L49" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M49" s="15" t="s">
         <v>26</v>
@@ -3518,19 +3497,19 @@
     </row>
     <row r="50" spans="1:18" ht="15.5" customHeight="1">
       <c r="A50" s="3" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="F50" s="5" t="s">
         <v>20</v>
@@ -3539,19 +3518,19 @@
         <v>31</v>
       </c>
       <c r="H50" s="13" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="I50" s="4" t="s">
         <v>23</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="K50" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L50" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M50" s="15" t="s">
         <v>26</v>
@@ -3570,19 +3549,19 @@
     </row>
     <row r="51" spans="1:18" ht="15.5" customHeight="1">
       <c r="A51" s="3" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="F51" s="5" t="s">
         <v>20</v>
@@ -3591,19 +3570,19 @@
         <v>21</v>
       </c>
       <c r="H51" s="13" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="I51" s="4" t="s">
         <v>23</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="K51" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L51" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M51" s="15" t="s">
         <v>26</v>

--- a/Results/Excel/TC01_Register_Result.xlsx
+++ b/Results/Excel/TC01_Register_Result.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\Project\Results\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C5C82D3-C18D-4FD5-8801-CFEA73CADE0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA0B776-3A35-4DD3-A567-E947981EA226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -160,382 +160,382 @@
     <t>ชื่อต้องมีจำนวนตัวอักษร 2-32 ตัวอักษรเท่านั้น</t>
   </si>
   <si>
+    <t>TD7</t>
+  </si>
+  <si>
+    <t>บวรทัตบวรทัตบวรทัตบวรทัตบวรทัตบ</t>
+  </si>
+  <si>
+    <t>สมัครสมาชิกสำเร็จ</t>
+  </si>
+  <si>
+    <t>TD8</t>
+  </si>
+  <si>
+    <t>ดา</t>
+  </si>
+  <si>
+    <t>กรุณากรอกนามสกุล</t>
+  </si>
+  <si>
+    <t>TD9</t>
+  </si>
+  <si>
+    <t>チャンパトン</t>
+  </si>
+  <si>
+    <t>นามสกุลต้องเป็นตัวอักษรภาษาไทยหรือภาษาอังกฤษ และห้ามมีตัวเลขหรือตัวอักษรพิเศษ</t>
+  </si>
+  <si>
+    <t>นามสกุลต้องเป็นภาษาไทยหรือภาษาอังกฤษเท่านั้น</t>
+  </si>
+  <si>
+    <t>TD10</t>
+  </si>
+  <si>
+    <t>จำปาทอง2</t>
+  </si>
+  <si>
+    <t>TD11</t>
+  </si>
+  <si>
+    <t>จำปาทอง.</t>
+  </si>
+  <si>
+    <t>TD12</t>
+  </si>
+  <si>
+    <t>จ</t>
+  </si>
+  <si>
+    <t>นามสกุลต้องมีจำนวนตัวอักษร 2-30 ตัวอักษรเท่านั้น</t>
+  </si>
+  <si>
+    <t>นามสกุลต้องมีจำนวนตัวอักษร 2-32 ตัวอักษรเท่านั้น</t>
+  </si>
+  <si>
+    <t>TD13</t>
+  </si>
+  <si>
+    <t>จำปาทองจำปาทองจำปาทองจำปาทองจำป</t>
+  </si>
+  <si>
+    <t>TD14</t>
+  </si>
+  <si>
+    <t>กรุณากรอกที่อยู่</t>
+  </si>
+  <si>
+    <t>TD15</t>
+  </si>
+  <si>
+    <t>30/9 ムー 10</t>
+  </si>
+  <si>
+    <t>ที่อยู่ต้องเป็นภาษาไทย ภาษาอังกฤษ ตัวเลขอารบิกหรือตัวอักษรพิเศษ วงเล็บ ( ) ขีดกลาง - จุด . สแลช / และคอมม่า , เท่านั้น</t>
+  </si>
+  <si>
+    <t>ควรแสดงข้อความแจ้งเตือนว่า "ที่อยู่ต้องเป็นภาษาไทย ภาษาอังกฤษ ตัวเลขอารบิกหรือตัวอักษรพิเศษ วงเล็บ ( ) ขีดกลาง - จุด . สแลช / และคอมม่า , เท่านั้น"</t>
+  </si>
+  <si>
+    <t>TD16</t>
+  </si>
+  <si>
+    <t>๓๐/๑๙</t>
+  </si>
+  <si>
+    <t>TD17</t>
+  </si>
+  <si>
+    <t>30_19</t>
+  </si>
+  <si>
+    <t>TD18</t>
+  </si>
+  <si>
+    <t>30/9</t>
+  </si>
+  <si>
+    <t>ที่อยู่ต้องมีจำนวนตัวอักษร 5-100 ตัวอักษรเท่านั้น</t>
+  </si>
+  <si>
+    <t>TD19</t>
+  </si>
+  <si>
+    <t>30/9 ม.10 ต.เจดีย์หัก อ.เมืองราชบุรี จ.ราชบุรี รหัสไปรษณีย์ 70000 30/9 ม.10 ต.เจดีย์หัก อ.เมืองราชบุร</t>
+  </si>
+  <si>
+    <t>ที่อยู่ต้องมีจำนวนตัวอักษร 2-100 ตัวอักษรเท่านั้น</t>
+  </si>
+  <si>
+    <t>TD20</t>
+  </si>
+  <si>
+    <t>กรุณากรอกเบอร์โทร</t>
+  </si>
+  <si>
+    <t>TD21</t>
+  </si>
+  <si>
+    <t>080 843 7940</t>
+  </si>
+  <si>
+    <t>เบอร์โทรห้ามมีช่องว่าง ตัวอักษรหรือตัวอักษรพิเศษ</t>
+  </si>
+  <si>
+    <t>เบอร์โทรต้องมีจำนวนตัวเลข 10 ตัวเลขเท่านั้น</t>
+  </si>
+  <si>
+    <t>TD22</t>
+  </si>
+  <si>
+    <t>Tel0808437940</t>
+  </si>
+  <si>
+    <t>TD23</t>
+  </si>
+  <si>
+    <t>0808437940.</t>
+  </si>
+  <si>
+    <t>TD24</t>
+  </si>
+  <si>
+    <t>๐๘๐๘๔๓๗๙๔๐</t>
+  </si>
+  <si>
+    <t>เบอร์โทรต้องเป็นตัวเลขอารบิก และขึ้นต้นด้วยเลข 06 08 09 เท่านั้น</t>
+  </si>
+  <si>
+    <t>ต้องขึ้นต้นด้วยเลข 0 เท่านั้น และไม่มีช่องว่างหรือตัวอักษรใดๆ แทรกระหว่างตัวเลข</t>
+  </si>
+  <si>
+    <t>TD25</t>
+  </si>
+  <si>
+    <t>0708437940</t>
+  </si>
+  <si>
+    <t>TD26</t>
+  </si>
+  <si>
+    <t>080843794</t>
+  </si>
+  <si>
+    <t>TD27</t>
+  </si>
+  <si>
+    <t>08084379400</t>
+  </si>
+  <si>
+    <t>TD28</t>
+  </si>
+  <si>
+    <t>กรุณาเลือกเพศ</t>
+  </si>
+  <si>
+    <t>TD29</t>
+  </si>
+  <si>
+    <t>กรุณากรอกอีเมล</t>
+  </si>
+  <si>
+    <t>TD30</t>
+  </si>
+  <si>
+    <t>bawonthad2612</t>
+  </si>
+  <si>
+    <t>อีเมลต้องเป็นรูปแบบที่ถูกต้องของอีเมล ประกอบด้วยตัวอักษรภาษาอังกฤษ ตัวเลขอารบิกหรือตัวอักษรพิเศษ ขีดกลาง - ขีดล่าง _ แอท @ จุด . และห้ามมีช่องว่าง</t>
+  </si>
+  <si>
+    <t>อีเมลต้องเป็นรูปแบบที่ถูกต้องของอีเมล</t>
+  </si>
+  <si>
+    <t>TD31</t>
+  </si>
+  <si>
+    <t>บวรทัต2612@gmail.com</t>
+  </si>
+  <si>
+    <t>TD32</t>
+  </si>
+  <si>
+    <t>bawonthad๒๖๑๒@gmail.com</t>
+  </si>
+  <si>
+    <t>TD33</t>
+  </si>
+  <si>
+    <t>#bawonthad2612@gmail.com</t>
+  </si>
+  <si>
+    <t>TD34</t>
+  </si>
+  <si>
+    <t>bawonthad2612@gmail. com</t>
+  </si>
+  <si>
+    <t>TD35</t>
+  </si>
+  <si>
+    <t>b@gmail.com</t>
+  </si>
+  <si>
+    <t>อีเมลต้องมีจำนวนตัวอักษร 12-40 ตัวอักษรเท่านั้น</t>
+  </si>
+  <si>
+    <t>ควรแสดงข้อความแจ้งเตือนว่า "อีเมลต้องมีจำนวนตัวอักษร 12-40 ตัวอักษรเท่านั้น"</t>
+  </si>
+  <si>
+    <t>TD36</t>
+  </si>
+  <si>
+    <t>bawonthad2612312312312312312311@gmail.com</t>
+  </si>
+  <si>
+    <t>TD37</t>
+  </si>
+  <si>
+    <t>กรุณากรอกเลขบัตรประชาชน</t>
+  </si>
+  <si>
+    <t>TD38</t>
+  </si>
+  <si>
+    <t>๑๗๐๙๘๐๐๓๗๓๒๔๓</t>
+  </si>
+  <si>
+    <t>เลขบัตรประชาชนต้องเป็นตัวเลขอารบิก และมีรูปแบบตามระบบทะเบียนราษฎร ห้ามมีช่องว่าง ตัวอักษรหรือตัวอักษรพิเศษ และไม่เป็นเลขบัตรประชาชนที่มีข้อมูลอยู่ในระบบ</t>
+  </si>
+  <si>
+    <t>เลขบัตรประชาชนต้องเป็นตัวเลขอารบิกเท่านั้น</t>
+  </si>
+  <si>
+    <t>ควรแสดงข้อความแจ้งเตือนว่า "เลขบัตรประชาชนต้องเป็นตัวเลขอารบิก และมีรูปแบบตามระบบทะเบียนราษฎร ห้ามมีช่องว่าง ตัวอักษรหรือตัวอักษรพิเศษ และไม่เป็นเลขบัตรประชาชนที่มีข้อมูลอยู่ในระบบ"</t>
+  </si>
+  <si>
+    <t>TD39</t>
+  </si>
+  <si>
+    <t>0000000000000</t>
+  </si>
+  <si>
+    <t>TD40</t>
+  </si>
+  <si>
+    <t>154 9900 523 702</t>
+  </si>
+  <si>
+    <t>เลขบัตรประชาชนต้องมีจำนวนตัวเลข 13 ตัวเลขเท่านั้น</t>
+  </si>
+  <si>
+    <t>TD41</t>
+  </si>
+  <si>
+    <t>ID1549900523702</t>
+  </si>
+  <si>
+    <t>TD42</t>
+  </si>
+  <si>
+    <t>1549900523702.</t>
+  </si>
+  <si>
+    <t>TD43</t>
+  </si>
+  <si>
+    <t>1709800373243</t>
+  </si>
+  <si>
+    <t>TD44</t>
+  </si>
+  <si>
+    <t>154990052370</t>
+  </si>
+  <si>
+    <t>เลขบัตรประชาชนต้องมีจำนวน 13 หลัก</t>
+  </si>
+  <si>
+    <t>TD45</t>
+  </si>
+  <si>
+    <t>15499005237022</t>
+  </si>
+  <si>
+    <t>TD46</t>
+  </si>
+  <si>
+    <t>เลือกปี (ปีปัจจุบัน -11)</t>
+  </si>
+  <si>
+    <t>ไม่สามารถสมัครสมาชิกได้ จำเป็นต้องมีอายุตั้งแต่ 12 ปีขึ้นไป ถึงจะสมัครสมาชิกได้</t>
+  </si>
+  <si>
+    <t>ควรแสดงข้อความแจ้งเตือนว่า "ไม่สามารถสมัครสมาชิกได้ จำเป็นต้องมีอายุตั้งแต่ 12 ปีขึ้นไป ถึงจะสมัครสมาชิกได้"</t>
+  </si>
+  <si>
+    <t>TD47</t>
+  </si>
+  <si>
+    <t>ba@gmail.com</t>
+  </si>
+  <si>
+    <t>ควรแสดงข้อความแจ้งเตือนว่า "สมัครสมาชิกสำเร็จ"</t>
+  </si>
+  <si>
+    <t>TD48</t>
+  </si>
+  <si>
+    <t>ดาว</t>
+  </si>
+  <si>
+    <t>ทอง</t>
+  </si>
+  <si>
+    <t>30/19.</t>
+  </si>
+  <si>
+    <t>เลือกปี (ปีปัจจุบัน -13)</t>
+  </si>
+  <si>
+    <t>TD49</t>
+  </si>
+  <si>
+    <t>บวรทัตบวรทัตบวรทัตบวรทัตบวรทั</t>
+  </si>
+  <si>
+    <t>จำปาทองจำปาทองจำปาทองจำปาทองจ</t>
+  </si>
+  <si>
+    <t>30/9 ม.10 ต.เจดีย์หัก อ.เมืองราชบุรี จ.ราชบุรี รหัสไปรษณีย์ 70000 30/9 ม.10 ต.เจดีย์หัก อ.เมืองราชบ</t>
+  </si>
+  <si>
+    <t>bawonthad_61231231211231231-3@gmail.com</t>
+  </si>
+  <si>
+    <t>TD50</t>
+  </si>
+  <si>
+    <t>bawonthadbawonthadbawonthadbaw</t>
+  </si>
+  <si>
+    <t>jumpatongjumpatongjumpatongjum</t>
+  </si>
+  <si>
+    <t>30/9 Moo 10, Chedi Hak Subdistrict,Mueang Ratchaburi District,Ratchaburi Province, postal code 70000</t>
+  </si>
+  <si>
+    <t>bawonthad261231231231231231231@gmail.com</t>
+  </si>
+  <si>
     <t>ควรแสดงข้อความแจ้งเตือนว่า "ชื่อต้องมีจำนวนตัวอักษร 2-30 ตัวอักษรเท่านั้น"</t>
   </si>
   <si>
-    <t>TD7</t>
-  </si>
-  <si>
-    <t>บวรทัตบวรทัตบวรทัตบวรทัตบวรทัตบ</t>
-  </si>
-  <si>
-    <t>สมัครสมาชิกสำเร็จ</t>
-  </si>
-  <si>
-    <t>TD8</t>
-  </si>
-  <si>
-    <t>ดา</t>
-  </si>
-  <si>
-    <t>กรุณากรอกนามสกุล</t>
-  </si>
-  <si>
-    <t>TD9</t>
-  </si>
-  <si>
-    <t>チャンパトン</t>
-  </si>
-  <si>
-    <t>นามสกุลต้องเป็นตัวอักษรภาษาไทยหรือภาษาอังกฤษ และห้ามมีตัวเลขหรือตัวอักษรพิเศษ</t>
-  </si>
-  <si>
-    <t>นามสกุลต้องเป็นภาษาไทยหรือภาษาอังกฤษเท่านั้น</t>
-  </si>
-  <si>
-    <t>TD10</t>
-  </si>
-  <si>
-    <t>จำปาทอง2</t>
-  </si>
-  <si>
-    <t>TD11</t>
-  </si>
-  <si>
-    <t>จำปาทอง.</t>
-  </si>
-  <si>
-    <t>TD12</t>
-  </si>
-  <si>
-    <t>จ</t>
-  </si>
-  <si>
-    <t>นามสกุลต้องมีจำนวนตัวอักษร 2-30 ตัวอักษรเท่านั้น</t>
-  </si>
-  <si>
-    <t>นามสกุลต้องมีจำนวนตัวอักษร 2-32 ตัวอักษรเท่านั้น</t>
-  </si>
-  <si>
     <t>ควรแสดงข้อความแจ้งเตือนว่า "นามสกุลต้องมีจำนวนตัวอักษร 2-30 ตัวอักษรเท่านั้น"</t>
   </si>
   <si>
-    <t>TD13</t>
-  </si>
-  <si>
-    <t>จำปาทองจำปาทองจำปาทองจำปาทองจำป</t>
-  </si>
-  <si>
-    <t>TD14</t>
-  </si>
-  <si>
-    <t>กรุณากรอกที่อยู่</t>
-  </si>
-  <si>
-    <t>TD15</t>
-  </si>
-  <si>
-    <t>30/9 ムー 10</t>
-  </si>
-  <si>
-    <t>ที่อยู่ต้องเป็นภาษาไทย ภาษาอังกฤษ ตัวเลขอารบิกหรือตัวอักษรพิเศษ วงเล็บ ( ) ขีดกลาง - จุด . สแลช / และคอมม่า , เท่านั้น</t>
-  </si>
-  <si>
-    <t>ควรแสดงข้อความแจ้งเตือนว่า "ที่อยู่ต้องเป็นภาษาไทย ภาษาอังกฤษ ตัวเลขอารบิกหรือตัวอักษรพิเศษ วงเล็บ ( ) ขีดกลาง - จุด . สแลช / และคอมม่า , เท่านั้น"</t>
-  </si>
-  <si>
-    <t>TD16</t>
-  </si>
-  <si>
-    <t>๓๐/๑๙</t>
-  </si>
-  <si>
-    <t>TD17</t>
-  </si>
-  <si>
-    <t>30_19</t>
-  </si>
-  <si>
-    <t>TD18</t>
-  </si>
-  <si>
-    <t>30/9</t>
-  </si>
-  <si>
-    <t>ที่อยู่ต้องมีจำนวนตัวอักษร 5-100 ตัวอักษรเท่านั้น</t>
-  </si>
-  <si>
     <t>ควรแสดงข้อความแจ้งเตือนว่า "ที่อยู่ต้องมีจำนวนตัวอักษร 5-100 ตัวอักษรเท่านั้น"</t>
-  </si>
-  <si>
-    <t>TD19</t>
-  </si>
-  <si>
-    <t>30/9 ม.10 ต.เจดีย์หัก อ.เมืองราชบุรี จ.ราชบุรี รหัสไปรษณีย์ 70000 30/9 ม.10 ต.เจดีย์หัก อ.เมืองราชบุร</t>
-  </si>
-  <si>
-    <t>ที่อยู่ต้องมีจำนวนตัวอักษร 2-100 ตัวอักษรเท่านั้น</t>
-  </si>
-  <si>
-    <t>TD20</t>
-  </si>
-  <si>
-    <t>กรุณากรอกเบอร์โทร</t>
-  </si>
-  <si>
-    <t>TD21</t>
-  </si>
-  <si>
-    <t>080 843 7940</t>
-  </si>
-  <si>
-    <t>เบอร์โทรห้ามมีช่องว่าง ตัวอักษรหรือตัวอักษรพิเศษ</t>
-  </si>
-  <si>
-    <t>เบอร์โทรต้องมีจำนวนตัวเลข 10 ตัวเลขเท่านั้น</t>
-  </si>
-  <si>
-    <t>TD22</t>
-  </si>
-  <si>
-    <t>Tel0808437940</t>
-  </si>
-  <si>
-    <t>TD23</t>
-  </si>
-  <si>
-    <t>0808437940.</t>
-  </si>
-  <si>
-    <t>TD24</t>
-  </si>
-  <si>
-    <t>๐๘๐๘๔๓๗๙๔๐</t>
-  </si>
-  <si>
-    <t>เบอร์โทรต้องเป็นตัวเลขอารบิก และขึ้นต้นด้วยเลข 06 08 09 เท่านั้น</t>
-  </si>
-  <si>
-    <t>ต้องขึ้นต้นด้วยเลข 0 เท่านั้น และไม่มีช่องว่างหรือตัวอักษรใดๆ แทรกระหว่างตัวเลข</t>
-  </si>
-  <si>
-    <t>TD25</t>
-  </si>
-  <si>
-    <t>0708437940</t>
-  </si>
-  <si>
-    <t>TD26</t>
-  </si>
-  <si>
-    <t>080843794</t>
-  </si>
-  <si>
-    <t>TD27</t>
-  </si>
-  <si>
-    <t>08084379400</t>
-  </si>
-  <si>
-    <t>TD28</t>
-  </si>
-  <si>
-    <t>กรุณาเลือกเพศ</t>
-  </si>
-  <si>
-    <t>TD29</t>
-  </si>
-  <si>
-    <t>กรุณากรอกอีเมล</t>
-  </si>
-  <si>
-    <t>TD30</t>
-  </si>
-  <si>
-    <t>bawonthad2612</t>
-  </si>
-  <si>
-    <t>อีเมลต้องเป็นรูปแบบที่ถูกต้องของอีเมล ประกอบด้วยตัวอักษรภาษาอังกฤษ ตัวเลขอารบิกหรือตัวอักษรพิเศษ ขีดกลาง - ขีดล่าง _ แอท @ จุด . และห้ามมีช่องว่าง</t>
-  </si>
-  <si>
-    <t>อีเมลต้องเป็นรูปแบบที่ถูกต้องของอีเมล</t>
-  </si>
-  <si>
-    <t>TD31</t>
-  </si>
-  <si>
-    <t>บวรทัต2612@gmail.com</t>
-  </si>
-  <si>
-    <t>TD32</t>
-  </si>
-  <si>
-    <t>bawonthad๒๖๑๒@gmail.com</t>
-  </si>
-  <si>
-    <t>TD33</t>
-  </si>
-  <si>
-    <t>#bawonthad2612@gmail.com</t>
-  </si>
-  <si>
-    <t>TD34</t>
-  </si>
-  <si>
-    <t>bawonthad2612@gmail. com</t>
-  </si>
-  <si>
-    <t>TD35</t>
-  </si>
-  <si>
-    <t>b@gmail.com</t>
-  </si>
-  <si>
-    <t>อีเมลต้องมีจำนวนตัวอักษร 12-40 ตัวอักษรเท่านั้น</t>
-  </si>
-  <si>
-    <t>ควรแสดงข้อความแจ้งเตือนว่า "อีเมลต้องมีจำนวนตัวอักษร 12-40 ตัวอักษรเท่านั้น"</t>
-  </si>
-  <si>
-    <t>TD36</t>
-  </si>
-  <si>
-    <t>bawonthad2612312312312312312311@gmail.com</t>
-  </si>
-  <si>
-    <t>TD37</t>
-  </si>
-  <si>
-    <t>กรุณากรอกเลขบัตรประชาชน</t>
-  </si>
-  <si>
-    <t>TD38</t>
-  </si>
-  <si>
-    <t>๑๗๐๙๘๐๐๓๗๓๒๔๓</t>
-  </si>
-  <si>
-    <t>เลขบัตรประชาชนต้องเป็นตัวเลขอารบิก และมีรูปแบบตามระบบทะเบียนราษฎร ห้ามมีช่องว่าง ตัวอักษรหรือตัวอักษรพิเศษ และไม่เป็นเลขบัตรประชาชนที่มีข้อมูลอยู่ในระบบ</t>
-  </si>
-  <si>
-    <t>เลขบัตรประชาชนต้องเป็นตัวเลขอารบิกเท่านั้น</t>
-  </si>
-  <si>
-    <t>ควรแสดงข้อความแจ้งเตือนว่า "เลขบัตรประชาชนต้องเป็นตัวเลขอารบิก และมีรูปแบบตามระบบทะเบียนราษฎร ห้ามมีช่องว่าง ตัวอักษรหรือตัวอักษรพิเศษ และไม่เป็นเลขบัตรประชาชนที่มีข้อมูลอยู่ในระบบ"</t>
-  </si>
-  <si>
-    <t>TD39</t>
-  </si>
-  <si>
-    <t>0000000000000</t>
-  </si>
-  <si>
-    <t>TD40</t>
-  </si>
-  <si>
-    <t>154 9900 523 702</t>
-  </si>
-  <si>
-    <t>เลขบัตรประชาชนต้องมีจำนวนตัวเลข 13 ตัวเลขเท่านั้น</t>
-  </si>
-  <si>
-    <t>TD41</t>
-  </si>
-  <si>
-    <t>ID1549900523702</t>
-  </si>
-  <si>
-    <t>TD42</t>
-  </si>
-  <si>
-    <t>1549900523702.</t>
-  </si>
-  <si>
-    <t>TD43</t>
-  </si>
-  <si>
-    <t>1709800373243</t>
-  </si>
-  <si>
-    <t>TD44</t>
-  </si>
-  <si>
-    <t>154990052370</t>
-  </si>
-  <si>
-    <t>เลขบัตรประชาชนต้องมีจำนวน 13 หลัก</t>
-  </si>
-  <si>
-    <t>TD45</t>
-  </si>
-  <si>
-    <t>15499005237022</t>
-  </si>
-  <si>
-    <t>TD46</t>
-  </si>
-  <si>
-    <t>เลือกปี (ปีปัจจุบัน -11)</t>
-  </si>
-  <si>
-    <t>ไม่สามารถสมัครสมาชิกได้ จำเป็นต้องมีอายุตั้งแต่ 12 ปีขึ้นไป ถึงจะสมัครสมาชิกได้</t>
-  </si>
-  <si>
-    <t>ควรแสดงข้อความแจ้งเตือนว่า "ไม่สามารถสมัครสมาชิกได้ จำเป็นต้องมีอายุตั้งแต่ 12 ปีขึ้นไป ถึงจะสมัครสมาชิกได้"</t>
-  </si>
-  <si>
-    <t>TD47</t>
-  </si>
-  <si>
-    <t>ba@gmail.com</t>
-  </si>
-  <si>
-    <t>ควรแสดงข้อความแจ้งเตือนว่า "สมัครสมาชิกสำเร็จ"</t>
-  </si>
-  <si>
-    <t>TD48</t>
-  </si>
-  <si>
-    <t>ดาว</t>
-  </si>
-  <si>
-    <t>ทอง</t>
-  </si>
-  <si>
-    <t>30/19.</t>
-  </si>
-  <si>
-    <t>เลือกปี (ปีปัจจุบัน -13)</t>
-  </si>
-  <si>
-    <t>TD49</t>
-  </si>
-  <si>
-    <t>บวรทัตบวรทัตบวรทัตบวรทัตบวรทั</t>
-  </si>
-  <si>
-    <t>จำปาทองจำปาทองจำปาทองจำปาทองจ</t>
-  </si>
-  <si>
-    <t>30/9 ม.10 ต.เจดีย์หัก อ.เมืองราชบุรี จ.ราชบุรี รหัสไปรษณีย์ 70000 30/9 ม.10 ต.เจดีย์หัก อ.เมืองราชบ</t>
-  </si>
-  <si>
-    <t>bawonthad_61231231211231231-3@gmail.com</t>
-  </si>
-  <si>
-    <t>TD50</t>
-  </si>
-  <si>
-    <t>bawonthadbawonthadbawonthadbaw</t>
-  </si>
-  <si>
-    <t>jumpatongjumpatongjumpatongjum</t>
-  </si>
-  <si>
-    <t>30/9 Moo 10, Chedi Hak Subdistrict,Mueang Ratchaburi District,Ratchaburi Province, postal code 70000</t>
-  </si>
-  <si>
-    <t>bawonthad261231231231231231231@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1005,8 +1005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" topLeftCell="K33" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.5"/>
@@ -1387,13 +1387,13 @@
     </row>
     <row r="8" spans="1:20" ht="15.5" customHeight="1">
       <c r="A8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>46</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>47</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>18</v>
@@ -1420,7 +1420,7 @@
         <v>43</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M8" s="8" t="s">
         <v>34</v>
@@ -1432,18 +1432,18 @@
         <v>14</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>45</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="15.5" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="5" t="s">
@@ -1465,10 +1465,10 @@
         <v>24</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M9" s="15" t="s">
         <v>26</v>
@@ -1485,16 +1485,16 @@
     </row>
     <row r="10" spans="1:20" ht="15.5" customHeight="1">
       <c r="A10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>52</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>53</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>19</v>
@@ -1515,10 +1515,10 @@
         <v>24</v>
       </c>
       <c r="K10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="5" t="s">
         <v>54</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>55</v>
       </c>
       <c r="M10" s="8" t="s">
         <v>34</v>
@@ -1535,16 +1535,16 @@
     </row>
     <row r="11" spans="1:20" ht="15.5" customHeight="1">
       <c r="A11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>56</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>57</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>19</v>
@@ -1565,10 +1565,10 @@
         <v>24</v>
       </c>
       <c r="K11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="L11" s="5" t="s">
         <v>54</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>55</v>
       </c>
       <c r="M11" s="8" t="s">
         <v>34</v>
@@ -1585,16 +1585,16 @@
     </row>
     <row r="12" spans="1:20" ht="15.5" customHeight="1">
       <c r="A12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>58</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>59</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>19</v>
@@ -1615,10 +1615,10 @@
         <v>24</v>
       </c>
       <c r="K12" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="L12" s="5" t="s">
         <v>54</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>55</v>
       </c>
       <c r="M12" s="8" t="s">
         <v>34</v>
@@ -1635,16 +1635,16 @@
     </row>
     <row r="13" spans="1:20" ht="15.5" customHeight="1">
       <c r="A13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>60</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>61</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>19</v>
@@ -1665,10 +1665,10 @@
         <v>24</v>
       </c>
       <c r="K13" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="L13" s="5" t="s">
         <v>62</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>63</v>
       </c>
       <c r="M13" s="8" t="s">
         <v>34</v>
@@ -1685,16 +1685,16 @@
     </row>
     <row r="14" spans="1:20" ht="15.5" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>19</v>
@@ -1715,10 +1715,10 @@
         <v>24</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M14" s="8" t="s">
         <v>34</v>
@@ -1730,18 +1730,18 @@
         <v>14</v>
       </c>
       <c r="P14" s="5" t="s">
-        <v>64</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="15.5" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>18</v>
@@ -1763,10 +1763,10 @@
         <v>24</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M15" s="15" t="s">
         <v>26</v>
@@ -1783,19 +1783,19 @@
     </row>
     <row r="16" spans="1:20" ht="15.5" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>20</v>
@@ -1813,10 +1813,10 @@
         <v>24</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M16" s="8" t="s">
         <v>34</v>
@@ -1828,24 +1828,24 @@
         <v>14</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="15.5" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>20</v>
@@ -1863,10 +1863,10 @@
         <v>24</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M17" s="8" t="s">
         <v>34</v>
@@ -1878,24 +1878,24 @@
         <v>14</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="15.5" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>20</v>
@@ -1913,10 +1913,10 @@
         <v>24</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M18" s="8" t="s">
         <v>34</v>
@@ -1928,24 +1928,24 @@
         <v>14</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="15.5" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>20</v>
@@ -1963,10 +1963,10 @@
         <v>24</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M19" s="8" t="s">
         <v>34</v>
@@ -1978,24 +1978,24 @@
         <v>14</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>80</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="15.5" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>20</v>
@@ -2013,33 +2013,33 @@
         <v>24</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="M20" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="N20" s="8" t="s">
-        <v>34</v>
+      <c r="N20" s="15" t="s">
+        <v>26</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>80</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="15.5" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>18</v>
@@ -2061,10 +2061,10 @@
         <v>24</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="M21" s="15" t="s">
         <v>26</v>
@@ -2081,13 +2081,13 @@
     </row>
     <row r="22" spans="1:16" ht="15.5" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>18</v>
@@ -2096,7 +2096,7 @@
         <v>19</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>21</v>
@@ -2111,10 +2111,10 @@
         <v>24</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="M22" s="8" t="s">
         <v>34</v>
@@ -2131,13 +2131,13 @@
     </row>
     <row r="23" spans="1:16" ht="15.5" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>18</v>
@@ -2146,7 +2146,7 @@
         <v>19</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>31</v>
@@ -2161,10 +2161,10 @@
         <v>24</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="M23" s="8" t="s">
         <v>34</v>
@@ -2181,13 +2181,13 @@
     </row>
     <row r="24" spans="1:16" ht="15.5" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>18</v>
@@ -2196,7 +2196,7 @@
         <v>19</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>21</v>
@@ -2211,10 +2211,10 @@
         <v>24</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="M24" s="8" t="s">
         <v>34</v>
@@ -2231,13 +2231,13 @@
     </row>
     <row r="25" spans="1:16" ht="15.5" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>18</v>
@@ -2246,7 +2246,7 @@
         <v>19</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>31</v>
@@ -2261,10 +2261,10 @@
         <v>24</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="M25" s="8" t="s">
         <v>34</v>
@@ -2281,13 +2281,13 @@
     </row>
     <row r="26" spans="1:16" ht="15.5" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>18</v>
@@ -2296,7 +2296,7 @@
         <v>19</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>21</v>
@@ -2311,10 +2311,10 @@
         <v>24</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="M26" s="8" t="s">
         <v>34</v>
@@ -2331,13 +2331,13 @@
     </row>
     <row r="27" spans="1:16" ht="15.5" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>18</v>
@@ -2346,7 +2346,7 @@
         <v>19</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>31</v>
@@ -2361,10 +2361,10 @@
         <v>24</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="M27" s="15" t="s">
         <v>26</v>
@@ -2381,13 +2381,13 @@
     </row>
     <row r="28" spans="1:16" ht="15.5" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>18</v>
@@ -2396,7 +2396,7 @@
         <v>19</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>21</v>
@@ -2411,10 +2411,10 @@
         <v>24</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="M28" s="15" t="s">
         <v>26</v>
@@ -2431,13 +2431,13 @@
     </row>
     <row r="29" spans="1:16" ht="15.5" customHeight="1">
       <c r="A29" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>18</v>
@@ -2459,10 +2459,10 @@
         <v>24</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="L29" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="M29" s="15" t="s">
         <v>26</v>
@@ -2479,13 +2479,13 @@
     </row>
     <row r="30" spans="1:16" ht="15.5" customHeight="1">
       <c r="A30" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>18</v>
@@ -2507,10 +2507,10 @@
         <v>24</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="L30" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="M30" s="15" t="s">
         <v>26</v>
@@ -2527,13 +2527,13 @@
     </row>
     <row r="31" spans="1:16" ht="15.5" customHeight="1">
       <c r="A31" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>18</v>
@@ -2548,7 +2548,7 @@
         <v>21</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="I31" s="4" t="s">
         <v>23</v>
@@ -2557,10 +2557,10 @@
         <v>24</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="L31" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M31" s="8" t="s">
         <v>34</v>
@@ -2577,13 +2577,13 @@
     </row>
     <row r="32" spans="1:16" ht="15.5" customHeight="1">
       <c r="A32" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>18</v>
@@ -2598,7 +2598,7 @@
         <v>31</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I32" s="4" t="s">
         <v>23</v>
@@ -2607,10 +2607,10 @@
         <v>24</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="L32" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M32" s="8" t="s">
         <v>34</v>
@@ -2627,13 +2627,13 @@
     </row>
     <row r="33" spans="1:18" ht="15.5" customHeight="1">
       <c r="A33" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>18</v>
@@ -2648,7 +2648,7 @@
         <v>21</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="I33" s="4" t="s">
         <v>23</v>
@@ -2657,10 +2657,10 @@
         <v>24</v>
       </c>
       <c r="K33" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="L33" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M33" s="8" t="s">
         <v>34</v>
@@ -2677,13 +2677,13 @@
     </row>
     <row r="34" spans="1:18" ht="15.5" customHeight="1">
       <c r="A34" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>18</v>
@@ -2698,7 +2698,7 @@
         <v>31</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="I34" s="4" t="s">
         <v>23</v>
@@ -2707,10 +2707,10 @@
         <v>24</v>
       </c>
       <c r="K34" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="L34" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M34" s="8" t="s">
         <v>34</v>
@@ -2727,13 +2727,13 @@
     </row>
     <row r="35" spans="1:18" ht="15.5" customHeight="1">
       <c r="A35" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>18</v>
@@ -2748,7 +2748,7 @@
         <v>21</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="I35" s="4" t="s">
         <v>23</v>
@@ -2757,10 +2757,10 @@
         <v>24</v>
       </c>
       <c r="K35" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="L35" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M35" s="8" t="s">
         <v>34</v>
@@ -2777,13 +2777,13 @@
     </row>
     <row r="36" spans="1:18" ht="15.5" customHeight="1">
       <c r="A36" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>18</v>
@@ -2798,7 +2798,7 @@
         <v>31</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I36" s="4" t="s">
         <v>23</v>
@@ -2807,10 +2807,10 @@
         <v>24</v>
       </c>
       <c r="K36" s="5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="L36" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M36" s="8" t="s">
         <v>34</v>
@@ -2822,18 +2822,18 @@
         <v>14</v>
       </c>
       <c r="P36" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37" spans="1:18" ht="15.5" customHeight="1">
       <c r="A37" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>18</v>
@@ -2848,7 +2848,7 @@
         <v>21</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I37" s="4" t="s">
         <v>23</v>
@@ -2857,10 +2857,10 @@
         <v>24</v>
       </c>
       <c r="K37" s="5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="L37" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M37" s="8" t="s">
         <v>34</v>
@@ -2872,18 +2872,18 @@
         <v>14</v>
       </c>
       <c r="P37" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38" spans="1:18" ht="15.5" customHeight="1">
       <c r="A38" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>18</v>
@@ -2905,10 +2905,10 @@
         <v>24</v>
       </c>
       <c r="K38" s="5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="L38" s="5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="M38" s="15" t="s">
         <v>26</v>
@@ -2925,13 +2925,13 @@
     </row>
     <row r="39" spans="1:18" ht="15.5" customHeight="1">
       <c r="A39" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>18</v>
@@ -2949,16 +2949,16 @@
         <v>22</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="J39" s="4" t="s">
         <v>24</v>
       </c>
       <c r="K39" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L39" s="5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="M39" s="8" t="s">
         <v>34</v>
@@ -2977,13 +2977,13 @@
     </row>
     <row r="40" spans="1:18" ht="15.5" customHeight="1">
       <c r="A40" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>18</v>
@@ -3001,16 +3001,16 @@
         <v>22</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J40" s="4" t="s">
         <v>24</v>
       </c>
       <c r="K40" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L40" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M40" s="8" t="s">
         <v>34</v>
@@ -3022,20 +3022,20 @@
         <v>14</v>
       </c>
       <c r="P40" s="5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="Q40" s="12"/>
       <c r="R40" s="12"/>
     </row>
     <row r="41" spans="1:18" ht="15.5" customHeight="1">
       <c r="A41" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>18</v>
@@ -3053,16 +3053,16 @@
         <v>22</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="J41" s="4" t="s">
         <v>24</v>
       </c>
       <c r="K41" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L41" s="5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="M41" s="8" t="s">
         <v>34</v>
@@ -3081,13 +3081,13 @@
     </row>
     <row r="42" spans="1:18" ht="15.5" customHeight="1">
       <c r="A42" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>18</v>
@@ -3105,16 +3105,16 @@
         <v>22</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="J42" s="4" t="s">
         <v>24</v>
       </c>
       <c r="K42" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L42" s="5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="M42" s="8" t="s">
         <v>34</v>
@@ -3133,13 +3133,13 @@
     </row>
     <row r="43" spans="1:18" ht="15.5" customHeight="1">
       <c r="A43" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>18</v>
@@ -3157,16 +3157,16 @@
         <v>22</v>
       </c>
       <c r="I43" s="14" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J43" s="4" t="s">
         <v>24</v>
       </c>
       <c r="K43" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="M43" s="14" t="s">
         <v>34</v>
@@ -3185,13 +3185,13 @@
     </row>
     <row r="44" spans="1:18" ht="15.5" customHeight="1">
       <c r="A44" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>18</v>
@@ -3209,16 +3209,16 @@
         <v>22</v>
       </c>
       <c r="I44" s="14" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J44" s="4" t="s">
         <v>24</v>
       </c>
       <c r="K44" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M44" s="14" t="s">
         <v>34</v>
@@ -3230,20 +3230,20 @@
         <v>14</v>
       </c>
       <c r="P44" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="Q44" s="12"/>
       <c r="R44" s="12"/>
     </row>
     <row r="45" spans="1:18" ht="15.5" customHeight="1">
       <c r="A45" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>18</v>
@@ -3261,16 +3261,16 @@
         <v>22</v>
       </c>
       <c r="I45" s="14" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J45" s="4" t="s">
         <v>24</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="M45" s="14" t="s">
         <v>34</v>
@@ -3289,13 +3289,13 @@
     </row>
     <row r="46" spans="1:18" ht="15.5" customHeight="1">
       <c r="A46" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>18</v>
@@ -3313,16 +3313,16 @@
         <v>22</v>
       </c>
       <c r="I46" s="14" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="J46" s="4" t="s">
         <v>24</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="M46" s="14" t="s">
         <v>34</v>
@@ -3341,13 +3341,13 @@
     </row>
     <row r="47" spans="1:18" ht="15.5" customHeight="1">
       <c r="A47" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>18</v>
@@ -3368,13 +3368,13 @@
         <v>23</v>
       </c>
       <c r="J47" s="14" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M47" s="14" t="s">
         <v>34</v>
@@ -3386,20 +3386,20 @@
         <v>14</v>
       </c>
       <c r="P47" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="Q47" s="12"/>
       <c r="R47" s="12"/>
     </row>
     <row r="48" spans="1:18" ht="15.5" customHeight="1">
       <c r="A48" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>18</v>
@@ -3414,7 +3414,7 @@
         <v>31</v>
       </c>
       <c r="H48" s="13" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="I48" s="4" t="s">
         <v>23</v>
@@ -3423,10 +3423,10 @@
         <v>24</v>
       </c>
       <c r="K48" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L48" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M48" s="8" t="s">
         <v>34</v>
@@ -3438,26 +3438,26 @@
         <v>14</v>
       </c>
       <c r="P48" s="5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="Q48" s="12"/>
       <c r="R48" s="12"/>
     </row>
     <row r="49" spans="1:18" ht="15.5" customHeight="1">
       <c r="A49" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E49" s="5" t="s">
         <v>156</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>159</v>
       </c>
       <c r="F49" s="5" t="s">
         <v>20</v>
@@ -3472,13 +3472,13 @@
         <v>23</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="K49" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L49" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M49" s="15" t="s">
         <v>26</v>
@@ -3497,19 +3497,19 @@
     </row>
     <row r="50" spans="1:18" ht="15.5" customHeight="1">
       <c r="A50" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E50" s="5" t="s">
         <v>161</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>164</v>
       </c>
       <c r="F50" s="5" t="s">
         <v>20</v>
@@ -3518,19 +3518,19 @@
         <v>31</v>
       </c>
       <c r="H50" s="13" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="I50" s="4" t="s">
         <v>23</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="K50" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L50" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M50" s="15" t="s">
         <v>26</v>
@@ -3549,19 +3549,19 @@
     </row>
     <row r="51" spans="1:18" ht="15.5" customHeight="1">
       <c r="A51" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="E51" s="5" t="s">
         <v>166</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>169</v>
       </c>
       <c r="F51" s="5" t="s">
         <v>20</v>
@@ -3570,19 +3570,19 @@
         <v>21</v>
       </c>
       <c r="H51" s="13" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I51" s="4" t="s">
         <v>23</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="K51" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L51" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M51" s="15" t="s">
         <v>26</v>
